--- a/pred_ohlcv/54_23/2019-10-05 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-05 TMTG ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1519,7 +1519,7 @@
         <v>0.95</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>1.07</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -3014,10 +3014,10 @@
         <v>1.02</v>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -3037,10 +3037,10 @@
         <v>1.01</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -3060,10 +3060,10 @@
         <v>1.02</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3083,10 +3083,10 @@
         <v>1.02</v>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -4440,7 +4440,7 @@
         <v>0.97</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -4647,7 +4647,7 @@
         <v>0.96</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -4670,7 +4670,7 @@
         <v>0.97</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -5521,7 +5521,7 @@
         <v>1.02</v>
       </c>
       <c r="F224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -6053,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="G341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -8445,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="G351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368">
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369">
@@ -9162,6 +9162,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>